--- a/Code/Results/Cases/Case_5_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.82982049657201</v>
+        <v>19.94943145514307</v>
       </c>
       <c r="C2">
-        <v>17.86045509065917</v>
+        <v>9.864324008596844</v>
       </c>
       <c r="D2">
-        <v>4.337294437521584</v>
+        <v>7.119280444993101</v>
       </c>
       <c r="E2">
-        <v>6.713126887919321</v>
+        <v>9.646071058415544</v>
       </c>
       <c r="F2">
-        <v>34.13566720874633</v>
+        <v>37.38304194697209</v>
       </c>
       <c r="I2">
-        <v>22.10618785419812</v>
+        <v>29.55346602580157</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.43093654823418</v>
+        <v>10.27488303849295</v>
       </c>
       <c r="M2">
-        <v>13.77654626026696</v>
+        <v>17.15870100078373</v>
       </c>
       <c r="N2">
-        <v>12.97895762324411</v>
+        <v>19.96945516764769</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.16601126575938</v>
+        <v>19.53062189691046</v>
       </c>
       <c r="C3">
-        <v>16.59778846352476</v>
+        <v>9.27920543866067</v>
       </c>
       <c r="D3">
-        <v>4.438625525801712</v>
+        <v>7.146797519895694</v>
       </c>
       <c r="E3">
-        <v>6.626071999272745</v>
+        <v>9.62575764367174</v>
       </c>
       <c r="F3">
-        <v>32.66393749222008</v>
+        <v>37.18173560654614</v>
       </c>
       <c r="I3">
-        <v>21.66586428861673</v>
+        <v>29.56658138265703</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.343568060143161</v>
+        <v>10.28598448907631</v>
       </c>
       <c r="M3">
-        <v>13.1473882377439</v>
+        <v>17.08375225915517</v>
       </c>
       <c r="N3">
-        <v>13.24127748957176</v>
+        <v>20.03970510188956</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.16845777509356</v>
+        <v>19.27467497848491</v>
       </c>
       <c r="C4">
-        <v>15.78340087918587</v>
+        <v>8.902594012468047</v>
       </c>
       <c r="D4">
-        <v>4.501998146434523</v>
+        <v>7.164480791490373</v>
       </c>
       <c r="E4">
-        <v>6.57266728729426</v>
+        <v>9.613020768527276</v>
       </c>
       <c r="F4">
-        <v>31.76682710456492</v>
+        <v>37.0690459123824</v>
       </c>
       <c r="I4">
-        <v>21.41519081206247</v>
+        <v>29.58179532446443</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.293224656993719</v>
+        <v>10.29436912991403</v>
       </c>
       <c r="M4">
-        <v>12.75595934841708</v>
+        <v>17.04140035155665</v>
       </c>
       <c r="N4">
-        <v>13.40543033843077</v>
+        <v>20.08481043669389</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75196539409973</v>
+        <v>19.17083645641032</v>
       </c>
       <c r="C5">
-        <v>15.44153635528688</v>
+        <v>8.744893272948454</v>
       </c>
       <c r="D5">
-        <v>4.528125104799956</v>
+        <v>7.17188544495409</v>
       </c>
       <c r="E5">
-        <v>6.550896788752138</v>
+        <v>9.60776382062998</v>
       </c>
       <c r="F5">
-        <v>31.40322868271355</v>
+        <v>37.02589895041046</v>
       </c>
       <c r="I5">
-        <v>21.31785780784646</v>
+        <v>29.58979024439661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.273528848332932</v>
+        <v>10.29818027449668</v>
       </c>
       <c r="M5">
-        <v>12.59534526627331</v>
+        <v>17.02507607616603</v>
       </c>
       <c r="N5">
-        <v>13.47313130929097</v>
+        <v>20.10368820845626</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68220902162822</v>
+        <v>19.15362674653158</v>
       </c>
       <c r="C6">
-        <v>15.38416180309002</v>
+        <v>8.718456267096723</v>
       </c>
       <c r="D6">
-        <v>4.532482060349817</v>
+        <v>7.173126990610644</v>
       </c>
       <c r="E6">
-        <v>6.547280822206714</v>
+        <v>9.6068868850844</v>
       </c>
       <c r="F6">
-        <v>31.3429840427428</v>
+        <v>37.01890283923642</v>
       </c>
       <c r="I6">
-        <v>21.30198275786859</v>
+        <v>29.59122603435761</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.270307553303297</v>
+        <v>10.29883692684895</v>
       </c>
       <c r="M6">
-        <v>12.56861479641512</v>
+        <v>17.02242222061773</v>
       </c>
       <c r="N6">
-        <v>13.48442266318942</v>
+        <v>20.10685290020161</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.16288102525447</v>
+        <v>19.27327249349807</v>
       </c>
       <c r="C7">
-        <v>15.77883105069412</v>
+        <v>8.900484128665422</v>
       </c>
       <c r="D7">
-        <v>4.502349264828069</v>
+        <v>7.164579848557423</v>
       </c>
       <c r="E7">
-        <v>6.572373737941871</v>
+        <v>9.612950141121274</v>
       </c>
       <c r="F7">
-        <v>31.76191497974771</v>
+        <v>37.0684527445674</v>
       </c>
       <c r="I7">
-        <v>21.41385881489886</v>
+        <v>29.58189588660935</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.292955728461179</v>
+        <v>10.29441893178907</v>
       </c>
       <c r="M7">
-        <v>12.75379745128712</v>
+        <v>17.04117639761879</v>
       </c>
       <c r="N7">
-        <v>13.40634006778653</v>
+        <v>20.08506301512499</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.25993654132643</v>
+        <v>19.80487072862381</v>
       </c>
       <c r="C8">
-        <v>17.43310326634351</v>
+        <v>9.666246758342075</v>
       </c>
       <c r="D8">
-        <v>4.372000607138006</v>
+        <v>7.128605157179613</v>
       </c>
       <c r="E8">
-        <v>6.683088029977026</v>
+        <v>9.639121801429081</v>
       </c>
       <c r="F8">
-        <v>33.6270415952037</v>
+        <v>37.31138639159678</v>
       </c>
       <c r="I8">
-        <v>21.95020062155632</v>
+        <v>29.55649881818186</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.400120430824287</v>
+        <v>10.27838531863773</v>
       </c>
       <c r="M8">
-        <v>13.56077640495857</v>
+        <v>17.13210540160853</v>
       </c>
       <c r="N8">
-        <v>13.06878354949595</v>
+        <v>19.99326887228451</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18112350032873</v>
+        <v>20.85005655740126</v>
       </c>
       <c r="C9">
-        <v>20.37473223145666</v>
+        <v>11.04298256727103</v>
       </c>
       <c r="D9">
-        <v>4.125055016280569</v>
+        <v>7.064285177217896</v>
       </c>
       <c r="E9">
-        <v>6.901597211981309</v>
+        <v>9.688352488207929</v>
       </c>
       <c r="F9">
-        <v>37.32513019455567</v>
+        <v>37.87279638311713</v>
       </c>
       <c r="I9">
-        <v>23.16393742511945</v>
+        <v>29.56372884662277</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.636951854418729</v>
+        <v>10.25938689211172</v>
       </c>
       <c r="M9">
-        <v>15.0962622065127</v>
+        <v>17.33891387664078</v>
       </c>
       <c r="N9">
-        <v>12.42991429611065</v>
+        <v>19.8288479805319</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.82728274965427</v>
+        <v>21.61080840404811</v>
       </c>
       <c r="C10">
-        <v>22.36361149588484</v>
+        <v>12.0250550814788</v>
       </c>
       <c r="D10">
-        <v>3.948315023580998</v>
+        <v>7.02079152767724</v>
       </c>
       <c r="E10">
-        <v>7.064669352550446</v>
+        <v>9.723257075612757</v>
       </c>
       <c r="F10">
-        <v>40.05773031995116</v>
+        <v>38.33468505712651</v>
       </c>
       <c r="I10">
-        <v>24.16261829610195</v>
+        <v>29.60404877431929</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.827973663787102</v>
+        <v>10.25301170929262</v>
       </c>
       <c r="M10">
-        <v>16.52088958620772</v>
+        <v>17.5073530962333</v>
       </c>
       <c r="N10">
-        <v>11.97265094816566</v>
+        <v>19.71746922808123</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98317770057909</v>
+        <v>21.95360272834472</v>
       </c>
       <c r="C11">
-        <v>23.23397967031161</v>
+        <v>12.44626122269941</v>
       </c>
       <c r="D11">
-        <v>3.868849206419338</v>
+        <v>7.001815042190904</v>
       </c>
       <c r="E11">
-        <v>7.139864268013345</v>
+        <v>9.738863542812714</v>
       </c>
       <c r="F11">
-        <v>41.30419995959517</v>
+        <v>38.55494336143953</v>
       </c>
       <c r="I11">
-        <v>24.64215585564052</v>
+        <v>29.63002401485418</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.918772585900124</v>
+        <v>10.25175595347923</v>
       </c>
       <c r="M11">
-        <v>17.1549089151619</v>
+        <v>17.58735445500419</v>
       </c>
       <c r="N11">
-        <v>11.76685930251541</v>
+        <v>19.66882873274592</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.41429937820657</v>
+        <v>22.08280422908976</v>
       </c>
       <c r="C12">
-        <v>23.55890192782162</v>
+        <v>12.60210883532555</v>
       </c>
       <c r="D12">
-        <v>3.83889094851675</v>
+        <v>6.994744973427171</v>
       </c>
       <c r="E12">
-        <v>7.168530320237225</v>
+        <v>9.744734325829183</v>
       </c>
       <c r="F12">
-        <v>41.77682225341</v>
+        <v>38.63975215803169</v>
       </c>
       <c r="I12">
-        <v>24.82756372015023</v>
+        <v>29.64095854831424</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.95373742578798</v>
+        <v>10.25151654102814</v>
       </c>
       <c r="M12">
-        <v>17.39130828737835</v>
+        <v>17.61811555998548</v>
       </c>
       <c r="N12">
-        <v>11.68922153778049</v>
+        <v>19.65069999959357</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32173767113813</v>
+        <v>22.05500746367304</v>
       </c>
       <c r="C13">
-        <v>23.48912692263175</v>
+        <v>12.5687064726007</v>
       </c>
       <c r="D13">
-        <v>3.845336994815305</v>
+        <v>6.996262490435844</v>
       </c>
       <c r="E13">
-        <v>7.162347248961337</v>
+        <v>9.743471683755784</v>
       </c>
       <c r="F13">
-        <v>41.67500423946039</v>
+        <v>38.6214256593414</v>
       </c>
       <c r="I13">
-        <v>24.78745968137945</v>
+        <v>29.63855475674471</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.946180900749155</v>
+        <v>10.25155760782636</v>
       </c>
       <c r="M13">
-        <v>17.34055659512695</v>
+        <v>17.61147018239847</v>
       </c>
       <c r="N13">
-        <v>11.70592968021145</v>
+        <v>19.65459144828034</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.01877661840632</v>
+        <v>21.96424513507464</v>
       </c>
       <c r="C14">
-        <v>23.26080305640428</v>
+        <v>12.45915602205467</v>
       </c>
       <c r="D14">
-        <v>3.86638182531413</v>
+        <v>7.001231062635973</v>
       </c>
       <c r="E14">
-        <v>7.142218516085556</v>
+        <v>9.739347318028635</v>
       </c>
       <c r="F14">
-        <v>41.34306952504264</v>
+        <v>38.56189287504457</v>
       </c>
       <c r="I14">
-        <v>24.65733176847764</v>
+        <v>29.63090159487109</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.921637383555288</v>
+        <v>10.25173152702711</v>
       </c>
       <c r="M14">
-        <v>17.17443052384771</v>
+        <v>17.58987595749145</v>
       </c>
       <c r="N14">
-        <v>11.76046631085764</v>
+        <v>19.66733145726902</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.83235524058924</v>
+        <v>21.90856760135152</v>
       </c>
       <c r="C15">
-        <v>23.12034905171057</v>
+        <v>12.39157791446577</v>
       </c>
       <c r="D15">
-        <v>3.879289885873406</v>
+        <v>7.004289539839645</v>
       </c>
       <c r="E15">
-        <v>7.129915498541083</v>
+        <v>9.73681594086622</v>
       </c>
       <c r="F15">
-        <v>41.13983509565288</v>
+        <v>38.52560813789246</v>
       </c>
       <c r="I15">
-        <v>24.57812795518083</v>
+        <v>29.6263568392289</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.906680141742879</v>
+        <v>10.25186879515734</v>
       </c>
       <c r="M15">
-        <v>17.07219844117732</v>
+        <v>17.57670901235891</v>
       </c>
       <c r="N15">
-        <v>11.79390870699127</v>
+        <v>19.67517286544622</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.75080329767778</v>
+        <v>21.588328241366</v>
       </c>
       <c r="C16">
-        <v>22.30606196822786</v>
+        <v>11.99701590326105</v>
       </c>
       <c r="D16">
-        <v>3.953526922990477</v>
+        <v>7.022047928678736</v>
       </c>
       <c r="E16">
-        <v>7.059779303419226</v>
+        <v>9.722231690194908</v>
       </c>
       <c r="F16">
-        <v>39.97634692341401</v>
+        <v>38.32048997809468</v>
       </c>
       <c r="I16">
-        <v>24.13180259153897</v>
+        <v>29.60250491093561</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.822119884590455</v>
+        <v>10.25312683722667</v>
       </c>
       <c r="M16">
-        <v>16.47892869261934</v>
+        <v>17.50219114784106</v>
       </c>
       <c r="N16">
-        <v>11.98614209724391</v>
+        <v>19.72068868578451</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.07524404458103</v>
+        <v>21.3909332818912</v>
       </c>
       <c r="C17">
-        <v>21.79790416429322</v>
+        <v>11.74843618757459</v>
       </c>
       <c r="D17">
-        <v>3.999306110881365</v>
+        <v>7.033149026883205</v>
       </c>
       <c r="E17">
-        <v>7.017042590190509</v>
+        <v>9.713215137276755</v>
       </c>
       <c r="F17">
-        <v>39.26350725213626</v>
+        <v>38.19721508169562</v>
       </c>
       <c r="I17">
-        <v>23.86458425943896</v>
+        <v>29.58982839921137</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.771257342296899</v>
+        <v>10.25431954699092</v>
       </c>
       <c r="M17">
-        <v>16.1082130698319</v>
+        <v>17.4573284089087</v>
       </c>
       <c r="N17">
-        <v>12.10461850361826</v>
+        <v>19.74912941739427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.68215613189007</v>
+        <v>21.27709625699106</v>
       </c>
       <c r="C18">
-        <v>21.50237062233235</v>
+        <v>11.60305428601889</v>
       </c>
       <c r="D18">
-        <v>4.025724777896661</v>
+        <v>7.039610255608824</v>
       </c>
       <c r="E18">
-        <v>6.992553717518469</v>
+        <v>9.708003468975587</v>
       </c>
       <c r="F18">
-        <v>38.85380643479296</v>
+        <v>38.12726892600386</v>
       </c>
       <c r="I18">
-        <v>23.71324950875512</v>
+        <v>29.58325573837204</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.742368412488819</v>
+        <v>10.25516036156638</v>
       </c>
       <c r="M18">
-        <v>15.89244681753113</v>
+        <v>17.43184366983731</v>
       </c>
       <c r="N18">
-        <v>12.17297345233363</v>
+        <v>19.76567855386962</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.54827806184299</v>
+        <v>21.23850564323904</v>
       </c>
       <c r="C19">
-        <v>21.40174113103049</v>
+        <v>11.55341675516556</v>
       </c>
       <c r="D19">
-        <v>4.034684849648391</v>
+        <v>7.04181101191471</v>
       </c>
       <c r="E19">
-        <v>6.984276760700866</v>
+        <v>9.706234492092891</v>
       </c>
       <c r="F19">
-        <v>38.71513933281119</v>
+        <v>38.1037526264918</v>
       </c>
       <c r="I19">
-        <v>23.66241059630394</v>
+        <v>29.58115372195608</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.732649409457619</v>
+        <v>10.2554716428437</v>
       </c>
       <c r="M19">
-        <v>15.81895075443149</v>
+        <v>17.42327036058393</v>
       </c>
       <c r="N19">
-        <v>12.19615432221006</v>
+        <v>19.77131460473426</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14762472294448</v>
+        <v>21.41197844328641</v>
       </c>
       <c r="C20">
-        <v>21.85233336489162</v>
+        <v>11.77514673616293</v>
       </c>
       <c r="D20">
-        <v>3.994423784400737</v>
+        <v>7.031959415721316</v>
       </c>
       <c r="E20">
-        <v>7.021582141248152</v>
+        <v>9.714177612445738</v>
       </c>
       <c r="F20">
-        <v>39.33935807387427</v>
+        <v>38.21023912526195</v>
       </c>
       <c r="I20">
-        <v>23.89278436096556</v>
+        <v>29.59110346248006</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.776633749689003</v>
+        <v>10.25417656204047</v>
       </c>
       <c r="M20">
-        <v>16.14793810615831</v>
+        <v>17.46207123375736</v>
       </c>
       <c r="N20">
-        <v>12.09198492196346</v>
+        <v>19.74608211533773</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.1079399750453</v>
+        <v>21.99092175689953</v>
       </c>
       <c r="C21">
-        <v>23.327991609561</v>
+        <v>12.49143266157362</v>
       </c>
       <c r="D21">
-        <v>3.860196795275826</v>
+        <v>6.999768529929384</v>
       </c>
       <c r="E21">
-        <v>7.14812521561341</v>
+        <v>9.740559803673914</v>
       </c>
       <c r="F21">
-        <v>41.44054866937677</v>
+        <v>38.57934152134642</v>
       </c>
       <c r="I21">
-        <v>24.69544822137391</v>
+        <v>29.63311970775713</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.928830451327944</v>
+        <v>10.25167403778122</v>
       </c>
       <c r="M21">
-        <v>17.2233244441769</v>
+        <v>17.59620620709453</v>
       </c>
       <c r="N21">
-        <v>11.74443988599806</v>
+        <v>19.66358153524612</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35086855061687</v>
+        <v>22.36569777553016</v>
       </c>
       <c r="C22">
-        <v>24.2653682784085</v>
+        <v>12.93827738187661</v>
       </c>
       <c r="D22">
-        <v>3.773255469337318</v>
+        <v>6.979405377324579</v>
       </c>
       <c r="E22">
-        <v>7.231971027199489</v>
+        <v>9.757574507535047</v>
       </c>
       <c r="F22">
-        <v>42.81750033589808</v>
+        <v>38.82871335967636</v>
       </c>
       <c r="I22">
-        <v>25.24239905435896</v>
+        <v>29.66698085763254</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.031700660584182</v>
+        <v>10.25141453438906</v>
       </c>
       <c r="M22">
-        <v>17.90473846508266</v>
+        <v>17.68657974582431</v>
       </c>
       <c r="N22">
-        <v>11.5189857826414</v>
+        <v>19.61135466515733</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.69088734524095</v>
+        <v>22.16604472968813</v>
       </c>
       <c r="C23">
-        <v>23.76744758152101</v>
+        <v>12.70172963422862</v>
       </c>
       <c r="D23">
-        <v>3.819584555106274</v>
+        <v>6.990211906318963</v>
       </c>
       <c r="E23">
-        <v>7.187099160535826</v>
+        <v>9.748514252249789</v>
       </c>
       <c r="F23">
-        <v>42.0821862938442</v>
+        <v>38.69489344855786</v>
       </c>
       <c r="I23">
-        <v>24.94836350224755</v>
+        <v>29.64832290248318</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.976477821134019</v>
+        <v>10.25142726280296</v>
       </c>
       <c r="M23">
-        <v>17.54295175615722</v>
+        <v>17.63810445112077</v>
       </c>
       <c r="N23">
-        <v>11.63916874251966</v>
+        <v>19.63907463481921</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11491607887465</v>
+        <v>21.40246501189593</v>
       </c>
       <c r="C24">
-        <v>21.82773649307288</v>
+        <v>11.76307859244116</v>
       </c>
       <c r="D24">
-        <v>3.996630773841727</v>
+        <v>7.032496992643375</v>
       </c>
       <c r="E24">
-        <v>7.019529561159955</v>
+        <v>9.713742564426102</v>
       </c>
       <c r="F24">
-        <v>39.30506555078014</v>
+        <v>38.20434806591594</v>
       </c>
       <c r="I24">
-        <v>23.88002796787788</v>
+        <v>29.59052477863685</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.774201979021095</v>
+        <v>10.25424072237921</v>
       </c>
       <c r="M24">
-        <v>16.12998664347358</v>
+        <v>17.45992604355631</v>
       </c>
       <c r="N24">
-        <v>12.09769581050729</v>
+        <v>19.74745918323156</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.16248753974036</v>
+        <v>20.56794662244372</v>
       </c>
       <c r="C25">
-        <v>19.61014317069949</v>
+        <v>10.67371753636316</v>
       </c>
       <c r="D25">
-        <v>4.190999793362141</v>
+        <v>7.081022366869353</v>
       </c>
       <c r="E25">
-        <v>6.842176740568696</v>
+        <v>9.675257170029523</v>
       </c>
       <c r="F25">
-        <v>36.32161517449337</v>
+        <v>37.71205026245573</v>
       </c>
       <c r="I25">
-        <v>22.81742444783806</v>
+        <v>29.55563854795075</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.569952888168951</v>
+        <v>10.2631943007378</v>
       </c>
       <c r="M25">
-        <v>14.68664859998973</v>
+        <v>17.2800019888988</v>
       </c>
       <c r="N25">
-        <v>12.60047818763395</v>
+        <v>19.87166793027195</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.94943145514307</v>
+        <v>23.82982049657202</v>
       </c>
       <c r="C2">
-        <v>9.864324008596844</v>
+        <v>17.86045509065925</v>
       </c>
       <c r="D2">
-        <v>7.119280444993101</v>
+        <v>4.337294437521658</v>
       </c>
       <c r="E2">
-        <v>9.646071058415544</v>
+        <v>6.713126887919383</v>
       </c>
       <c r="F2">
-        <v>37.38304194697209</v>
+        <v>34.13566720874638</v>
       </c>
       <c r="I2">
-        <v>29.55346602580157</v>
+        <v>22.10618785419818</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.27488303849295</v>
+        <v>6.430936548234259</v>
       </c>
       <c r="M2">
-        <v>17.15870100078373</v>
+        <v>13.77654626026699</v>
       </c>
       <c r="N2">
-        <v>19.96945516764769</v>
+        <v>12.97895762324411</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53062189691046</v>
+        <v>22.16601126575938</v>
       </c>
       <c r="C3">
-        <v>9.27920543866067</v>
+        <v>16.59778846352467</v>
       </c>
       <c r="D3">
-        <v>7.146797519895694</v>
+        <v>4.438625525801842</v>
       </c>
       <c r="E3">
-        <v>9.62575764367174</v>
+        <v>6.626071999272614</v>
       </c>
       <c r="F3">
-        <v>37.18173560654614</v>
+        <v>32.66393749222015</v>
       </c>
       <c r="I3">
-        <v>29.56658138265703</v>
+        <v>21.66586428861681</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.28598448907631</v>
+        <v>6.343568060143161</v>
       </c>
       <c r="M3">
-        <v>17.08375225915517</v>
+        <v>13.14738823774391</v>
       </c>
       <c r="N3">
-        <v>20.03970510188956</v>
+        <v>13.24127748957183</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.27467497848491</v>
+        <v>21.16845777509354</v>
       </c>
       <c r="C4">
-        <v>8.902594012468047</v>
+        <v>15.7834008791859</v>
       </c>
       <c r="D4">
-        <v>7.164480791490373</v>
+        <v>4.501998146434397</v>
       </c>
       <c r="E4">
-        <v>9.613020768527276</v>
+        <v>6.572667287294188</v>
       </c>
       <c r="F4">
-        <v>37.0690459123824</v>
+        <v>31.76682710456504</v>
       </c>
       <c r="I4">
-        <v>29.58179532446443</v>
+        <v>21.41519081206263</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.29436912991403</v>
+        <v>6.293224656993647</v>
       </c>
       <c r="M4">
-        <v>17.04140035155665</v>
+        <v>12.7559593484171</v>
       </c>
       <c r="N4">
-        <v>20.08481043669389</v>
+        <v>13.40543033843087</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.17083645641032</v>
+        <v>20.75196539409976</v>
       </c>
       <c r="C5">
-        <v>8.744893272948454</v>
+        <v>15.44153635528701</v>
       </c>
       <c r="D5">
-        <v>7.17188544495409</v>
+        <v>4.528125104799963</v>
       </c>
       <c r="E5">
-        <v>9.60776382062998</v>
+        <v>6.550896788752272</v>
       </c>
       <c r="F5">
-        <v>37.02589895041046</v>
+        <v>31.4032286827136</v>
       </c>
       <c r="I5">
-        <v>29.58979024439661</v>
+        <v>21.31785780784658</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.29818027449668</v>
+        <v>6.273528848332914</v>
       </c>
       <c r="M5">
-        <v>17.02507607616603</v>
+        <v>12.59534526627332</v>
       </c>
       <c r="N5">
-        <v>20.10368820845626</v>
+        <v>13.47313130929098</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.15362674653158</v>
+        <v>20.68220902162824</v>
       </c>
       <c r="C6">
-        <v>8.718456267096723</v>
+        <v>15.38416180309006</v>
       </c>
       <c r="D6">
-        <v>7.173126990610644</v>
+        <v>4.532482060349887</v>
       </c>
       <c r="E6">
-        <v>9.6068868850844</v>
+        <v>6.547280822206783</v>
       </c>
       <c r="F6">
-        <v>37.01890283923642</v>
+        <v>31.3429840427429</v>
       </c>
       <c r="I6">
-        <v>29.59122603435761</v>
+        <v>21.30198275786871</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.29883692684895</v>
+        <v>6.270307553303321</v>
       </c>
       <c r="M6">
-        <v>17.02242222061773</v>
+        <v>12.56861479641515</v>
       </c>
       <c r="N6">
-        <v>20.10685290020161</v>
+        <v>13.48442266318946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.27327249349807</v>
+        <v>21.16288102525449</v>
       </c>
       <c r="C7">
-        <v>8.900484128665422</v>
+        <v>15.77883105069415</v>
       </c>
       <c r="D7">
-        <v>7.164579848557423</v>
+        <v>4.502349264828201</v>
       </c>
       <c r="E7">
-        <v>9.612950141121274</v>
+        <v>6.572373737942</v>
       </c>
       <c r="F7">
-        <v>37.0684527445674</v>
+        <v>31.76191497974774</v>
       </c>
       <c r="I7">
-        <v>29.58189588660935</v>
+        <v>21.41385881489897</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.29441893178907</v>
+        <v>6.292955728461229</v>
       </c>
       <c r="M7">
-        <v>17.04117639761879</v>
+        <v>12.75379745128717</v>
       </c>
       <c r="N7">
-        <v>20.08506301512499</v>
+        <v>13.40634006778654</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.80487072862381</v>
+        <v>23.25993654132634</v>
       </c>
       <c r="C8">
-        <v>9.666246758342075</v>
+        <v>17.4331032663433</v>
       </c>
       <c r="D8">
-        <v>7.128605157179613</v>
+        <v>4.372000607138327</v>
       </c>
       <c r="E8">
-        <v>9.639121801429081</v>
+        <v>6.683088029976823</v>
       </c>
       <c r="F8">
-        <v>37.31138639159678</v>
+        <v>33.62704159520381</v>
       </c>
       <c r="I8">
-        <v>29.55649881818186</v>
+        <v>21.9502006215565</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.27838531863773</v>
+        <v>6.400120430824311</v>
       </c>
       <c r="M8">
-        <v>17.13210540160853</v>
+        <v>13.5607764049586</v>
       </c>
       <c r="N8">
-        <v>19.99326887228451</v>
+        <v>13.06878354949612</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.85005655740126</v>
+        <v>27.18112350032877</v>
       </c>
       <c r="C9">
-        <v>11.04298256727103</v>
+        <v>20.37473223145673</v>
       </c>
       <c r="D9">
-        <v>7.064285177217896</v>
+        <v>4.125055016280497</v>
       </c>
       <c r="E9">
-        <v>9.688352488207929</v>
+        <v>6.901597211981181</v>
       </c>
       <c r="F9">
-        <v>37.87279638311713</v>
+        <v>37.32513019455577</v>
       </c>
       <c r="I9">
-        <v>29.56372884662277</v>
+        <v>23.16393742511945</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.25938689211172</v>
+        <v>6.63695185441868</v>
       </c>
       <c r="M9">
-        <v>17.33891387664078</v>
+        <v>15.09626220651269</v>
       </c>
       <c r="N9">
-        <v>19.8288479805319</v>
+        <v>12.42991429611053</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.61080840404811</v>
+        <v>29.82728274965438</v>
       </c>
       <c r="C10">
-        <v>12.0250550814788</v>
+        <v>22.36361149588491</v>
       </c>
       <c r="D10">
-        <v>7.02079152767724</v>
+        <v>3.948315023580926</v>
       </c>
       <c r="E10">
-        <v>9.723257075612757</v>
+        <v>7.064669352550385</v>
       </c>
       <c r="F10">
-        <v>38.33468505712651</v>
+        <v>40.05773031995117</v>
       </c>
       <c r="I10">
-        <v>29.60404877431929</v>
+        <v>24.16261829610187</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.25301170929262</v>
+        <v>6.827973663787064</v>
       </c>
       <c r="M10">
-        <v>17.5073530962333</v>
+        <v>16.5208895862078</v>
       </c>
       <c r="N10">
-        <v>19.71746922808123</v>
+        <v>11.97265094816557</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.95360272834472</v>
+        <v>30.98317770057919</v>
       </c>
       <c r="C11">
-        <v>12.44626122269941</v>
+        <v>23.2339796703117</v>
       </c>
       <c r="D11">
-        <v>7.001815042190904</v>
+        <v>3.868849206419217</v>
       </c>
       <c r="E11">
-        <v>9.738863542812714</v>
+        <v>7.139864268013472</v>
       </c>
       <c r="F11">
-        <v>38.55494336143953</v>
+        <v>41.30419995959522</v>
       </c>
       <c r="I11">
-        <v>29.63002401485418</v>
+        <v>24.64215585564051</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.25175595347923</v>
+        <v>6.918772585900133</v>
       </c>
       <c r="M11">
-        <v>17.58735445500419</v>
+        <v>17.15490891516196</v>
       </c>
       <c r="N11">
-        <v>19.66882873274592</v>
+        <v>11.76685930251542</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.08280422908976</v>
+        <v>31.41429937820674</v>
       </c>
       <c r="C12">
-        <v>12.60210883532555</v>
+        <v>23.5589019278219</v>
       </c>
       <c r="D12">
-        <v>6.994744973427171</v>
+        <v>3.83889094851665</v>
       </c>
       <c r="E12">
-        <v>9.744734325829183</v>
+        <v>7.168530320237227</v>
       </c>
       <c r="F12">
-        <v>38.63975215803169</v>
+        <v>41.77682225341018</v>
       </c>
       <c r="I12">
-        <v>29.64095854831424</v>
+        <v>24.82756372015029</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.25151654102814</v>
+        <v>6.953737425787941</v>
       </c>
       <c r="M12">
-        <v>17.61811555998548</v>
+        <v>17.39130828737846</v>
       </c>
       <c r="N12">
-        <v>19.65069999959357</v>
+        <v>11.68922153778039</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.05500746367304</v>
+        <v>31.32173767113827</v>
       </c>
       <c r="C13">
-        <v>12.5687064726007</v>
+        <v>23.48912692263179</v>
       </c>
       <c r="D13">
-        <v>6.996262490435844</v>
+        <v>3.845336994815394</v>
       </c>
       <c r="E13">
-        <v>9.743471683755784</v>
+        <v>7.16234724896115</v>
       </c>
       <c r="F13">
-        <v>38.6214256593414</v>
+        <v>41.67500423946053</v>
       </c>
       <c r="I13">
-        <v>29.63855475674471</v>
+        <v>24.7874596813795</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.25155760782636</v>
+        <v>6.946180900749132</v>
       </c>
       <c r="M13">
-        <v>17.61147018239847</v>
+        <v>17.340556595127</v>
       </c>
       <c r="N13">
-        <v>19.65459144828034</v>
+        <v>11.70592968021135</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.96424513507464</v>
+        <v>31.01877661840642</v>
       </c>
       <c r="C14">
-        <v>12.45915602205467</v>
+        <v>23.26080305640418</v>
       </c>
       <c r="D14">
-        <v>7.001231062635973</v>
+        <v>3.866381825314255</v>
       </c>
       <c r="E14">
-        <v>9.739347318028635</v>
+        <v>7.142218516085494</v>
       </c>
       <c r="F14">
-        <v>38.56189287504457</v>
+        <v>41.34306952504268</v>
       </c>
       <c r="I14">
-        <v>29.63090159487109</v>
+        <v>24.65733176847765</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.25173152702711</v>
+        <v>6.921637383555297</v>
       </c>
       <c r="M14">
-        <v>17.58987595749145</v>
+        <v>17.17443052384776</v>
       </c>
       <c r="N14">
-        <v>19.66733145726902</v>
+        <v>11.76046631085765</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.90856760135152</v>
+        <v>30.83235524058927</v>
       </c>
       <c r="C15">
-        <v>12.39157791446577</v>
+        <v>23.12034905171067</v>
       </c>
       <c r="D15">
-        <v>7.004289539839645</v>
+        <v>3.879289885873354</v>
       </c>
       <c r="E15">
-        <v>9.73681594086622</v>
+        <v>7.12991549854109</v>
       </c>
       <c r="F15">
-        <v>38.52560813789246</v>
+        <v>41.13983509565292</v>
       </c>
       <c r="I15">
-        <v>29.6263568392289</v>
+        <v>24.57812795518084</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.25186879515734</v>
+        <v>6.906680141742862</v>
       </c>
       <c r="M15">
-        <v>17.57670901235891</v>
+        <v>17.07219844117735</v>
       </c>
       <c r="N15">
-        <v>19.67517286544622</v>
+        <v>11.79390870699124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.588328241366</v>
+        <v>29.75080329767782</v>
       </c>
       <c r="C16">
-        <v>11.99701590326105</v>
+        <v>22.30606196822794</v>
       </c>
       <c r="D16">
-        <v>7.022047928678736</v>
+        <v>3.953526922990532</v>
       </c>
       <c r="E16">
-        <v>9.722231690194908</v>
+        <v>7.059779303419293</v>
       </c>
       <c r="F16">
-        <v>38.32048997809468</v>
+        <v>39.97634692341406</v>
       </c>
       <c r="I16">
-        <v>29.60250491093561</v>
+        <v>24.13180259153897</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.25312683722667</v>
+        <v>6.822119884590432</v>
       </c>
       <c r="M16">
-        <v>17.50219114784106</v>
+        <v>16.47892869261937</v>
       </c>
       <c r="N16">
-        <v>19.72068868578451</v>
+        <v>11.98614209724389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.3909332818912</v>
+        <v>29.07524404458101</v>
       </c>
       <c r="C17">
-        <v>11.74843618757459</v>
+        <v>21.79790416429315</v>
       </c>
       <c r="D17">
-        <v>7.033149026883205</v>
+        <v>3.999306110881447</v>
       </c>
       <c r="E17">
-        <v>9.713215137276755</v>
+        <v>7.017042590190383</v>
       </c>
       <c r="F17">
-        <v>38.19721508169562</v>
+        <v>39.26350725213627</v>
       </c>
       <c r="I17">
-        <v>29.58982839921137</v>
+        <v>23.86458425943901</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.25431954699092</v>
+        <v>6.771257342296848</v>
       </c>
       <c r="M17">
-        <v>17.4573284089087</v>
+        <v>16.10821306983188</v>
       </c>
       <c r="N17">
-        <v>19.74912941739427</v>
+        <v>12.10461850361829</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.27709625699106</v>
+        <v>28.68215613189011</v>
       </c>
       <c r="C18">
-        <v>11.60305428601889</v>
+        <v>21.50237062233234</v>
       </c>
       <c r="D18">
-        <v>7.039610255608824</v>
+        <v>4.025724777896865</v>
       </c>
       <c r="E18">
-        <v>9.708003468975587</v>
+        <v>6.992553717518465</v>
       </c>
       <c r="F18">
-        <v>38.12726892600386</v>
+        <v>38.85380643479295</v>
       </c>
       <c r="I18">
-        <v>29.58325573837204</v>
+        <v>23.7132495087551</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.25516036156638</v>
+        <v>6.742368412488791</v>
       </c>
       <c r="M18">
-        <v>17.43184366983731</v>
+        <v>15.89244681753117</v>
       </c>
       <c r="N18">
-        <v>19.76567855386962</v>
+        <v>12.1729734523336</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.23850564323904</v>
+        <v>28.5482780618431</v>
       </c>
       <c r="C19">
-        <v>11.55341675516556</v>
+        <v>21.40174113103043</v>
       </c>
       <c r="D19">
-        <v>7.04181101191471</v>
+        <v>4.034684849648258</v>
       </c>
       <c r="E19">
-        <v>9.706234492092891</v>
+        <v>6.984276760700864</v>
       </c>
       <c r="F19">
-        <v>38.1037526264918</v>
+        <v>38.71513933281116</v>
       </c>
       <c r="I19">
-        <v>29.58115372195608</v>
+        <v>23.66241059630385</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.2554716428437</v>
+        <v>6.732649409457626</v>
       </c>
       <c r="M19">
-        <v>17.42327036058393</v>
+        <v>15.81895075443154</v>
       </c>
       <c r="N19">
-        <v>19.77131460473426</v>
+        <v>12.19615432221003</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.41197844328641</v>
+        <v>29.14762472294456</v>
       </c>
       <c r="C20">
-        <v>11.77514673616293</v>
+        <v>21.85233336489164</v>
       </c>
       <c r="D20">
-        <v>7.031959415721316</v>
+        <v>3.994423784400554</v>
       </c>
       <c r="E20">
-        <v>9.714177612445738</v>
+        <v>7.021582141248152</v>
       </c>
       <c r="F20">
-        <v>38.21023912526195</v>
+        <v>39.33935807387432</v>
       </c>
       <c r="I20">
-        <v>29.59110346248006</v>
+        <v>23.89278436096556</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.25417656204047</v>
+        <v>6.776633749689013</v>
       </c>
       <c r="M20">
-        <v>17.46207123375736</v>
+        <v>16.14793810615836</v>
       </c>
       <c r="N20">
-        <v>19.74608211533773</v>
+        <v>12.09198492196344</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.99092175689953</v>
+        <v>31.10793997504534</v>
       </c>
       <c r="C21">
-        <v>12.49143266157362</v>
+        <v>23.327991609561</v>
       </c>
       <c r="D21">
-        <v>6.999768529929384</v>
+        <v>3.86019679527584</v>
       </c>
       <c r="E21">
-        <v>9.740559803673914</v>
+        <v>7.148125215613346</v>
       </c>
       <c r="F21">
-        <v>38.57934152134642</v>
+        <v>41.44054866937683</v>
       </c>
       <c r="I21">
-        <v>29.63311970775713</v>
+        <v>24.69544822137397</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.25167403778122</v>
+        <v>6.92883045132791</v>
       </c>
       <c r="M21">
-        <v>17.59620620709453</v>
+        <v>17.22332444417692</v>
       </c>
       <c r="N21">
-        <v>19.66358153524612</v>
+        <v>11.7444398859981</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.36569777553016</v>
+        <v>32.35086855061673</v>
       </c>
       <c r="C22">
-        <v>12.93827738187661</v>
+        <v>24.2653682784082</v>
       </c>
       <c r="D22">
-        <v>6.979405377324579</v>
+        <v>3.773255469337364</v>
       </c>
       <c r="E22">
-        <v>9.757574507535047</v>
+        <v>7.231971027199426</v>
       </c>
       <c r="F22">
-        <v>38.82871335967636</v>
+        <v>42.81750033589805</v>
       </c>
       <c r="I22">
-        <v>29.66698085763254</v>
+        <v>25.24239905435904</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.25141453438906</v>
+        <v>7.031700660584201</v>
       </c>
       <c r="M22">
-        <v>17.68657974582431</v>
+        <v>17.90473846508256</v>
       </c>
       <c r="N22">
-        <v>19.61135466515733</v>
+        <v>11.51898578264155</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.16604472968813</v>
+        <v>31.690887345241</v>
       </c>
       <c r="C23">
-        <v>12.70172963422862</v>
+        <v>23.767447581521</v>
       </c>
       <c r="D23">
-        <v>6.990211906318963</v>
+        <v>3.819584555106389</v>
       </c>
       <c r="E23">
-        <v>9.748514252249789</v>
+        <v>7.187099160535886</v>
       </c>
       <c r="F23">
-        <v>38.69489344855786</v>
+        <v>42.08218629384425</v>
       </c>
       <c r="I23">
-        <v>29.64832290248318</v>
+        <v>24.94836350224756</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.25142726280296</v>
+        <v>6.976477821134027</v>
       </c>
       <c r="M23">
-        <v>17.63810445112077</v>
+        <v>17.54295175615724</v>
       </c>
       <c r="N23">
-        <v>19.63907463481921</v>
+        <v>11.6391687425197</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40246501189593</v>
+        <v>29.11491607887485</v>
       </c>
       <c r="C24">
-        <v>11.76307859244116</v>
+        <v>21.82773649307288</v>
       </c>
       <c r="D24">
-        <v>7.032496992643375</v>
+        <v>3.996630773841609</v>
       </c>
       <c r="E24">
-        <v>9.713742564426102</v>
+        <v>7.019529561159961</v>
       </c>
       <c r="F24">
-        <v>38.20434806591594</v>
+        <v>39.30506555078023</v>
       </c>
       <c r="I24">
-        <v>29.59052477863685</v>
+        <v>23.88002796787781</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.25424072237921</v>
+        <v>6.774201979021075</v>
       </c>
       <c r="M24">
-        <v>17.45992604355631</v>
+        <v>16.12998664347367</v>
       </c>
       <c r="N24">
-        <v>19.74745918323156</v>
+        <v>12.09769581050718</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.56794662244372</v>
+        <v>26.16248753974045</v>
       </c>
       <c r="C25">
-        <v>10.67371753636316</v>
+        <v>19.61014317069935</v>
       </c>
       <c r="D25">
-        <v>7.081022366869353</v>
+        <v>4.190999793362207</v>
       </c>
       <c r="E25">
-        <v>9.675257170029523</v>
+        <v>6.842176740568691</v>
       </c>
       <c r="F25">
-        <v>37.71205026245573</v>
+        <v>36.32161517449337</v>
       </c>
       <c r="I25">
-        <v>29.55563854795075</v>
+        <v>22.81742444783806</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.2631943007378</v>
+        <v>6.569952888168975</v>
       </c>
       <c r="M25">
-        <v>17.2800019888988</v>
+        <v>14.68664859998973</v>
       </c>
       <c r="N25">
-        <v>19.87166793027195</v>
+        <v>12.60047818763399</v>
       </c>
       <c r="O25">
         <v>0</v>
